--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aholmes/Developer/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E6C3F-F862-764C-8C46-0611EEFEAFCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E32D33-9EB1-1145-982B-7F84670328FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitorees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="403">
   <si>
     <t>First Name</t>
   </si>
@@ -1220,6 +1220,15 @@
   </si>
   <si>
     <t>Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Race Unknown</t>
+  </si>
+  <si>
+    <t>Race Other</t>
+  </si>
+  <si>
+    <t>Race Refused to Answer</t>
   </si>
 </sst>
 </file>
@@ -1572,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU12"/>
+  <dimension ref="A1:CX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CU2" sqref="CU2"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1677,9 +1686,14 @@
     <col min="95" max="95" width="12" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="28.83203125" customWidth="1"/>
+    <col min="99" max="99" width="18.83203125" customWidth="1"/>
+    <col min="100" max="100" width="19.1640625" customWidth="1"/>
+    <col min="101" max="101" width="11.5" customWidth="1"/>
+    <col min="102" max="102" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1977,8 +1991,17 @@
       <c r="CU1" t="s">
         <v>399</v>
       </c>
+      <c r="CV1" t="s">
+        <v>400</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>401</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>402</v>
+      </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2262,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2549,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2830,7 +2853,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3066,7 +3089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3320,7 +3343,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3580,7 +3603,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -3840,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4119,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4400,7 +4423,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4657,7 +4680,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>
